--- a/CONG NO/CONG NO 2016/Cong no NL ca.xlsx
+++ b/CONG NO/CONG NO 2016/Cong no NL ca.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="165" windowWidth="14940" windowHeight="8685" tabRatio="968" firstSheet="8" activeTab="27"/>
@@ -67,15 +67,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'TRẮNG (VL)'!$A$9:$I$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'TRÍ HẢO VT'!$A$9:$J$230</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TỶ LIÊN'!$A$9:$H$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="27">Sheet1!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="27">Sheet1!$C$1:$L$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'TỶ LIÊN'!$9:$9</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="457">
   <si>
     <t xml:space="preserve">NGÀY </t>
   </si>
@@ -1548,12 +1548,16 @@
     <t>Trừ tiền cá mai (Hoàng)</t>
   </si>
   <si>
-    <t>CẨM
-TV</t>
-  </si>
-  <si>
-    <t>TUẤN
-KG</t>
+    <t>HIẾU
+CÁ BÒ</t>
+  </si>
+  <si>
+    <t>NHU
+PQ</t>
+  </si>
+  <si>
+    <t>TÀI
+HT</t>
   </si>
 </sst>
 </file>
@@ -2860,6 +2864,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2887,12 +2897,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2902,6 +2906,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2909,15 +2922,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4006,39 +4010,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251" t="s">
+      <c r="B3" s="242"/>
+      <c r="C3" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
       <c r="F3" s="93"/>
       <c r="G3" s="226"/>
       <c r="H3" s="62"/>
@@ -4053,18 +4057,18 @@
       <c r="I4" s="233"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="252" t="s">
+      <c r="A5" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="252"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
+      <c r="J5" s="243"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -4075,12 +4079,12 @@
       <c r="I6" s="233"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="246" t="s">
         <v>414</v>
       </c>
-      <c r="B7" s="244"/>
-      <c r="C7" s="243"/>
-      <c r="D7" s="243"/>
+      <c r="B7" s="246"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="245"/>
       <c r="E7" s="264" t="s">
         <v>29</v>
       </c>
@@ -4562,39 +4566,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251" t="s">
+      <c r="B3" s="242"/>
+      <c r="C3" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
       <c r="F3" s="93"/>
       <c r="G3" s="59"/>
       <c r="H3" s="62"/>
@@ -4609,18 +4613,18 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="252" t="s">
+      <c r="A5" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="252"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
+      <c r="J5" s="243"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -4631,14 +4635,14 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="246" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="244"/>
-      <c r="C7" s="243" t="s">
+      <c r="B7" s="246"/>
+      <c r="C7" s="245" t="s">
         <v>363</v>
       </c>
-      <c r="D7" s="243"/>
+      <c r="D7" s="245"/>
       <c r="E7" s="264" t="s">
         <v>29</v>
       </c>
@@ -8119,58 +8123,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251" t="s">
+      <c r="B3" s="242"/>
+      <c r="C3" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="252" t="s">
+      <c r="A5" s="243" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="246" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="244"/>
+      <c r="B7" s="246"/>
       <c r="C7" s="272" t="s">
         <v>27</v>
       </c>
@@ -8271,14 +8275,14 @@
       <c r="H12" s="121"/>
     </row>
     <row r="13" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="248"/>
-      <c r="B13" s="249"/>
-      <c r="C13" s="249"/>
-      <c r="D13" s="249"/>
-      <c r="E13" s="249"/>
-      <c r="F13" s="249"/>
-      <c r="G13" s="249"/>
-      <c r="H13" s="250"/>
+      <c r="A13" s="250"/>
+      <c r="B13" s="251"/>
+      <c r="C13" s="251"/>
+      <c r="D13" s="251"/>
+      <c r="E13" s="251"/>
+      <c r="F13" s="251"/>
+      <c r="G13" s="251"/>
+      <c r="H13" s="252"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
@@ -8494,14 +8498,14 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="248"/>
-      <c r="B23" s="249"/>
-      <c r="C23" s="249"/>
-      <c r="D23" s="249"/>
-      <c r="E23" s="249"/>
-      <c r="F23" s="249"/>
-      <c r="G23" s="249"/>
-      <c r="H23" s="250"/>
+      <c r="A23" s="250"/>
+      <c r="B23" s="251"/>
+      <c r="C23" s="251"/>
+      <c r="D23" s="251"/>
+      <c r="E23" s="251"/>
+      <c r="F23" s="251"/>
+      <c r="G23" s="251"/>
+      <c r="H23" s="252"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
@@ -8634,14 +8638,14 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="248"/>
-      <c r="B30" s="249"/>
-      <c r="C30" s="249"/>
-      <c r="D30" s="249"/>
-      <c r="E30" s="249"/>
-      <c r="F30" s="249"/>
-      <c r="G30" s="249"/>
-      <c r="H30" s="250"/>
+      <c r="A30" s="250"/>
+      <c r="B30" s="251"/>
+      <c r="C30" s="251"/>
+      <c r="D30" s="251"/>
+      <c r="E30" s="251"/>
+      <c r="F30" s="251"/>
+      <c r="G30" s="251"/>
+      <c r="H30" s="252"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
@@ -8872,14 +8876,14 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="248"/>
-      <c r="B41" s="249"/>
-      <c r="C41" s="249"/>
-      <c r="D41" s="249"/>
-      <c r="E41" s="249"/>
-      <c r="F41" s="249"/>
-      <c r="G41" s="249"/>
-      <c r="H41" s="250"/>
+      <c r="A41" s="250"/>
+      <c r="B41" s="251"/>
+      <c r="C41" s="251"/>
+      <c r="D41" s="251"/>
+      <c r="E41" s="251"/>
+      <c r="F41" s="251"/>
+      <c r="G41" s="251"/>
+      <c r="H41" s="252"/>
     </row>
     <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
@@ -9691,11 +9695,6 @@
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <mergeCells count="14">
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A7:B7"/>
@@ -9705,6 +9704,11 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.54" right="0.26" top="0.32" bottom="0.74" header="0.23" footer="0.17"/>
@@ -9741,59 +9745,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
       <c r="F2" s="236"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251" t="s">
+      <c r="B3" s="242"/>
+      <c r="C3" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
       <c r="F3" s="236"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="252" t="s">
+      <c r="A5" s="243" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="244"/>
-      <c r="B7" s="244"/>
+      <c r="A7" s="246"/>
+      <c r="B7" s="246"/>
       <c r="C7" s="272" t="s">
         <v>28</v>
       </c>
@@ -10523,58 +10527,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251" t="s">
+      <c r="B3" s="242"/>
+      <c r="C3" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="252" t="s">
+      <c r="A5" s="243" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="246" t="s">
         <v>382</v>
       </c>
-      <c r="B7" s="244"/>
+      <c r="B7" s="246"/>
       <c r="C7" s="272" t="s">
         <v>28</v>
       </c>
@@ -10999,62 +11003,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="251"/>
+      <c r="B3" s="242"/>
       <c r="C3" s="226"/>
-      <c r="D3" s="251" t="s">
+      <c r="D3" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="251"/>
-      <c r="F3" s="251"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="252" t="s">
+      <c r="A5" s="243" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="246" t="s">
         <v>381</v>
       </c>
-      <c r="B7" s="244"/>
+      <c r="B7" s="246"/>
       <c r="C7" s="227"/>
       <c r="D7" s="272" t="s">
         <v>28</v>
@@ -18376,14 +18380,14 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="246" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="244"/>
-      <c r="C7" s="243" t="s">
+      <c r="B7" s="246"/>
+      <c r="C7" s="245" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="243"/>
+      <c r="D7" s="245"/>
       <c r="E7" s="264" t="s">
         <v>43</v>
       </c>
@@ -20550,6 +20554,14 @@
     <sortCondition ref="A84:A92"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="E106:H106"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E105:H105"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A71:F71"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
@@ -20558,14 +20570,6 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="E106:H106"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E105:H105"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A71:F71"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.34" right="0.16" top="0.64" bottom="0.2" header="0.3" footer="0.17"/>
@@ -22271,39 +22275,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
       <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
       <c r="I2" s="107"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251" t="s">
+      <c r="B3" s="242"/>
+      <c r="C3" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
       <c r="F3" s="59"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
@@ -22316,17 +22320,17 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="252" t="s">
+      <c r="A5" s="243" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -22335,14 +22339,14 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="244"/>
-      <c r="C7" s="243" t="s">
+      <c r="B7" s="246"/>
+      <c r="C7" s="245" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="243"/>
+      <c r="D7" s="245"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="57"/>
@@ -22383,15 +22387,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="245" t="s">
+      <c r="A10" s="247" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="246"/>
-      <c r="C10" s="246"/>
-      <c r="D10" s="246"/>
-      <c r="E10" s="246"/>
-      <c r="F10" s="246"/>
-      <c r="G10" s="247"/>
+      <c r="B10" s="248"/>
+      <c r="C10" s="248"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="248"/>
+      <c r="F10" s="248"/>
+      <c r="G10" s="249"/>
       <c r="H10" s="99">
         <v>2622054</v>
       </c>
@@ -24274,15 +24278,15 @@
       </c>
     </row>
     <row r="90" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="245" t="s">
+      <c r="A90" s="247" t="s">
         <v>246</v>
       </c>
-      <c r="B90" s="246"/>
-      <c r="C90" s="246"/>
-      <c r="D90" s="246"/>
-      <c r="E90" s="246"/>
-      <c r="F90" s="246"/>
-      <c r="G90" s="247"/>
+      <c r="B90" s="248"/>
+      <c r="C90" s="248"/>
+      <c r="D90" s="248"/>
+      <c r="E90" s="248"/>
+      <c r="F90" s="248"/>
+      <c r="G90" s="249"/>
       <c r="H90" s="99">
         <f>H89</f>
         <v>2411924</v>
@@ -25358,15 +25362,15 @@
       </c>
     </row>
     <row r="136" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="248"/>
-      <c r="B136" s="249"/>
-      <c r="C136" s="249"/>
-      <c r="D136" s="249"/>
-      <c r="E136" s="249"/>
-      <c r="F136" s="249"/>
-      <c r="G136" s="249"/>
-      <c r="H136" s="249"/>
-      <c r="I136" s="250"/>
+      <c r="A136" s="250"/>
+      <c r="B136" s="251"/>
+      <c r="C136" s="251"/>
+      <c r="D136" s="251"/>
+      <c r="E136" s="251"/>
+      <c r="F136" s="251"/>
+      <c r="G136" s="251"/>
+      <c r="H136" s="251"/>
+      <c r="I136" s="252"/>
     </row>
     <row r="137" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="39"/>
@@ -26627,20 +26631,15 @@
     <row r="193" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="15"/>
       <c r="B193" s="14"/>
-      <c r="E193" s="242"/>
-      <c r="F193" s="242"/>
-      <c r="G193" s="242"/>
-      <c r="H193" s="242"/>
+      <c r="E193" s="244"/>
+      <c r="F193" s="244"/>
+      <c r="G193" s="244"/>
+      <c r="H193" s="244"/>
       <c r="I193" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:I9"/>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="E193:H193"/>
     <mergeCell ref="A188:D188"/>
     <mergeCell ref="C7:D7"/>
@@ -26648,6 +26647,11 @@
     <mergeCell ref="A90:G90"/>
     <mergeCell ref="A136:I136"/>
     <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.16" right="0.17" top="0.16" bottom="0.17" header="0.16" footer="0.16"/>
@@ -26684,58 +26688,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251" t="s">
+      <c r="B3" s="242"/>
+      <c r="C3" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="252" t="s">
+      <c r="A5" s="243" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="246" t="s">
         <v>388</v>
       </c>
-      <c r="B7" s="244"/>
+      <c r="B7" s="246"/>
       <c r="C7" s="272" t="s">
         <v>28</v>
       </c>
@@ -27195,8 +27199,8 @@
         <v>329</v>
       </c>
       <c r="B7" s="265"/>
-      <c r="C7" s="243"/>
-      <c r="D7" s="243"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="245"/>
       <c r="E7" s="264"/>
       <c r="F7" s="264"/>
       <c r="G7" s="13"/>
@@ -27849,39 +27853,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251" t="s">
+      <c r="B3" s="242"/>
+      <c r="C3" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -27896,18 +27900,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="252" t="s">
+      <c r="A5" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="252"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
+      <c r="J5" s="243"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -27918,14 +27922,14 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="246" t="s">
         <v>389</v>
       </c>
-      <c r="B7" s="244"/>
-      <c r="C7" s="243" t="s">
+      <c r="B7" s="246"/>
+      <c r="C7" s="245" t="s">
         <v>390</v>
       </c>
-      <c r="D7" s="243"/>
+      <c r="D7" s="245"/>
       <c r="E7" s="264" t="s">
         <v>29</v>
       </c>
@@ -28298,39 +28302,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251" t="s">
+      <c r="B3" s="242"/>
+      <c r="C3" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -28345,18 +28349,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="252" t="s">
+      <c r="A5" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="252"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
+      <c r="J5" s="243"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -28367,14 +28371,14 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="246" t="s">
         <v>391</v>
       </c>
-      <c r="B7" s="244"/>
-      <c r="C7" s="243" t="s">
+      <c r="B7" s="246"/>
+      <c r="C7" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="243"/>
+      <c r="D7" s="245"/>
       <c r="E7" s="264" t="s">
         <v>29</v>
       </c>
@@ -28657,39 +28661,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251" t="s">
+      <c r="B3" s="242"/>
+      <c r="C3" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -28704,18 +28708,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="252" t="s">
+      <c r="A5" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="252"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
+      <c r="J5" s="243"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -28726,14 +28730,14 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="246" t="s">
         <v>392</v>
       </c>
-      <c r="B7" s="244"/>
-      <c r="C7" s="243" t="s">
+      <c r="B7" s="246"/>
+      <c r="C7" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="243"/>
+      <c r="D7" s="245"/>
       <c r="E7" s="264" t="s">
         <v>29</v>
       </c>
@@ -29071,42 +29075,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
       <c r="G1" s="92"/>
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="251"/>
+      <c r="B3" s="242"/>
       <c r="C3" s="215"/>
-      <c r="D3" s="251" t="s">
+      <c r="D3" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="251"/>
-      <c r="F3" s="251"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
       <c r="G3" s="93"/>
       <c r="H3" s="215"/>
       <c r="I3" s="62"/>
@@ -29121,19 +29125,19 @@
       <c r="J4" s="217"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="252" t="s">
+      <c r="A5" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="252"/>
-      <c r="K5" s="252"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
+      <c r="J5" s="243"/>
+      <c r="K5" s="243"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
@@ -29144,15 +29148,15 @@
       <c r="J6" s="217"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="246" t="s">
         <v>401</v>
       </c>
-      <c r="B7" s="244"/>
+      <c r="B7" s="246"/>
       <c r="C7" s="214"/>
-      <c r="D7" s="243" t="s">
+      <c r="D7" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="243"/>
+      <c r="E7" s="245"/>
       <c r="F7" s="264" t="s">
         <v>29</v>
       </c>
@@ -29732,39 +29736,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251" t="s">
+      <c r="B3" s="242"/>
+      <c r="C3" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -29779,18 +29783,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="252" t="s">
+      <c r="A5" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="252"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
+      <c r="J5" s="243"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -29801,14 +29805,14 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="246" t="s">
         <v>408</v>
       </c>
-      <c r="B7" s="244"/>
-      <c r="C7" s="243" t="s">
+      <c r="B7" s="246"/>
+      <c r="C7" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="243"/>
+      <c r="D7" s="245"/>
       <c r="E7" s="264" t="s">
         <v>29</v>
       </c>
@@ -30165,39 +30169,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251" t="s">
+      <c r="B3" s="242"/>
+      <c r="C3" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -30212,18 +30216,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="252" t="s">
+      <c r="A5" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="252"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
+      <c r="J5" s="243"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -30234,14 +30238,14 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="246" t="s">
         <v>409</v>
       </c>
-      <c r="B7" s="244"/>
-      <c r="C7" s="243" t="s">
+      <c r="B7" s="246"/>
+      <c r="C7" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="243"/>
+      <c r="D7" s="245"/>
       <c r="E7" s="264" t="s">
         <v>29</v>
       </c>
@@ -30570,7 +30574,7 @@
   <dimension ref="A1:BC38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H1"/>
+      <selection activeCell="H1" sqref="H1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30594,34 +30598,34 @@
         <v>50</v>
       </c>
       <c r="C1" s="90" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D1" s="90" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E1" s="90" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F1" s="90" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G1" s="90" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H1" s="90" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I1" s="90" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J1" s="90" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K1" s="90" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L1" s="90" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q1" s="90" t="s">
         <v>52</v>
@@ -30743,7 +30747,9 @@
     </row>
     <row r="2" spans="1:55" s="156" customFormat="1" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
+      <c r="I2" s="90" t="s">
+        <v>454</v>
+      </c>
       <c r="J2" s="157"/>
       <c r="K2" s="157"/>
       <c r="L2" s="157"/>
@@ -31613,10 +31619,10 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="246" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="244"/>
+      <c r="B7" s="246"/>
       <c r="E7" s="185" t="s">
         <v>294</v>
       </c>
@@ -34898,65 +34904,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251" t="s">
+      <c r="B3" s="242"/>
+      <c r="C3" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
       <c r="F3" s="59"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="252" t="s">
+      <c r="A5" s="243" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="246" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="244"/>
-      <c r="C7" s="244" t="s">
+      <c r="B7" s="246"/>
+      <c r="C7" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="244"/>
+      <c r="D7" s="246"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G8" s="56"/>
@@ -34992,15 +34998,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="259" t="s">
+      <c r="A10" s="256" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="260"/>
-      <c r="C10" s="260"/>
-      <c r="D10" s="260"/>
-      <c r="E10" s="260"/>
-      <c r="F10" s="260"/>
-      <c r="G10" s="261"/>
+      <c r="B10" s="257"/>
+      <c r="C10" s="257"/>
+      <c r="D10" s="257"/>
+      <c r="E10" s="257"/>
+      <c r="F10" s="257"/>
+      <c r="G10" s="258"/>
       <c r="H10" s="144">
         <v>699938</v>
       </c>
@@ -36687,15 +36693,15 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="259" t="s">
+      <c r="A81" s="256" t="s">
         <v>194</v>
       </c>
-      <c r="B81" s="260"/>
-      <c r="C81" s="260"/>
-      <c r="D81" s="260"/>
-      <c r="E81" s="260"/>
-      <c r="F81" s="260"/>
-      <c r="G81" s="261"/>
+      <c r="B81" s="257"/>
+      <c r="C81" s="257"/>
+      <c r="D81" s="257"/>
+      <c r="E81" s="257"/>
+      <c r="F81" s="257"/>
+      <c r="G81" s="258"/>
       <c r="H81" s="144">
         <f>H80</f>
         <v>1800668</v>
@@ -37677,15 +37683,15 @@
       <c r="I120" s="31"/>
     </row>
     <row r="121" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="259" t="s">
+      <c r="A121" s="256" t="s">
         <v>246</v>
       </c>
-      <c r="B121" s="260"/>
-      <c r="C121" s="260"/>
-      <c r="D121" s="260"/>
-      <c r="E121" s="260"/>
-      <c r="F121" s="260"/>
-      <c r="G121" s="261"/>
+      <c r="B121" s="257"/>
+      <c r="C121" s="257"/>
+      <c r="D121" s="257"/>
+      <c r="E121" s="257"/>
+      <c r="F121" s="257"/>
+      <c r="G121" s="258"/>
       <c r="H121" s="144">
         <f>H120</f>
         <v>2586475</v>
@@ -38665,12 +38671,12 @@
       <c r="I163" s="30"/>
     </row>
     <row r="164" spans="1:9" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="256" t="s">
+      <c r="A164" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="B164" s="257"/>
-      <c r="C164" s="257"/>
-      <c r="D164" s="258"/>
+      <c r="B164" s="260"/>
+      <c r="C164" s="260"/>
+      <c r="D164" s="261"/>
       <c r="E164" s="81">
         <f>SUM(E11:E163)+H10</f>
         <v>8739526.5</v>
@@ -38727,11 +38733,6 @@
   </sheetData>
   <autoFilter ref="A9:I9"/>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A10:G10"/>
     <mergeCell ref="A164:D164"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A7:B7"/>
@@ -38739,6 +38740,11 @@
     <mergeCell ref="A81:G81"/>
     <mergeCell ref="A121:G121"/>
     <mergeCell ref="I152:I153"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A10:G10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.41" right="0.22" top="0.28000000000000003" bottom="0.15" header="0.16" footer="0.15"/>
@@ -38775,42 +38781,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
       <c r="G1" s="92"/>
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="251"/>
+      <c r="B3" s="242"/>
       <c r="C3" s="226"/>
-      <c r="D3" s="251" t="s">
+      <c r="D3" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="251"/>
-      <c r="F3" s="251"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
       <c r="G3" s="93"/>
       <c r="H3" s="198"/>
       <c r="I3" s="62"/>
@@ -38825,19 +38831,19 @@
       <c r="J4" s="207"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="252" t="s">
+      <c r="A5" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="252"/>
-      <c r="K5" s="252"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
+      <c r="J5" s="243"/>
+      <c r="K5" s="243"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
@@ -38848,15 +38854,15 @@
       <c r="J6" s="207"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="246" t="s">
         <v>389</v>
       </c>
-      <c r="B7" s="244"/>
+      <c r="B7" s="246"/>
       <c r="C7" s="227"/>
-      <c r="D7" s="243" t="s">
+      <c r="D7" s="245" t="s">
         <v>390</v>
       </c>
-      <c r="E7" s="243"/>
+      <c r="E7" s="245"/>
       <c r="F7" s="264" t="s">
         <v>29</v>
       </c>
@@ -41816,39 +41822,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251" t="s">
+      <c r="B3" s="242"/>
+      <c r="C3" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -41863,18 +41869,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="252" t="s">
+      <c r="A5" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="252"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
+      <c r="J5" s="243"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -41885,14 +41891,14 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="246" t="s">
         <v>379</v>
       </c>
-      <c r="B7" s="244"/>
-      <c r="C7" s="243" t="s">
+      <c r="B7" s="246"/>
+      <c r="C7" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="243"/>
+      <c r="D7" s="245"/>
       <c r="E7" s="264" t="s">
         <v>29</v>
       </c>
@@ -42681,39 +42687,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251" t="s">
+      <c r="B3" s="242"/>
+      <c r="C3" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -42728,18 +42734,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="252" t="s">
+      <c r="A5" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="252"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
+      <c r="J5" s="243"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -42750,14 +42756,14 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="246" t="s">
         <v>403</v>
       </c>
-      <c r="B7" s="244"/>
-      <c r="C7" s="243" t="s">
+      <c r="B7" s="246"/>
+      <c r="C7" s="245" t="s">
         <v>404</v>
       </c>
-      <c r="D7" s="243"/>
+      <c r="D7" s="245"/>
       <c r="E7" s="264" t="s">
         <v>29</v>
       </c>

--- a/CONG NO/CONG NO 2016/Cong no NL ca.xlsx
+++ b/CONG NO/CONG NO 2016/Cong no NL ca.xlsx
@@ -1552,12 +1552,12 @@
 CÁ BÒ</t>
   </si>
   <si>
-    <t>NHU
-PQ</t>
-  </si>
-  <si>
-    <t>TÀI
+    <t>DANH
 HT</t>
+  </si>
+  <si>
+    <t>K. CƯƠNG
+BL</t>
   </si>
 </sst>
 </file>
@@ -2864,12 +2864,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2897,6 +2891,12 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2906,6 +2906,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2913,15 +2922,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4010,39 +4010,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="251" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="251" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242" t="s">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
       <c r="F3" s="93"/>
       <c r="G3" s="226"/>
       <c r="H3" s="62"/>
@@ -4057,18 +4057,18 @@
       <c r="I4" s="233"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="243"/>
-      <c r="J5" s="243"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
+      <c r="J5" s="252"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -4079,12 +4079,12 @@
       <c r="I6" s="233"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="246" t="s">
+      <c r="A7" s="244" t="s">
         <v>414</v>
       </c>
-      <c r="B7" s="246"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="245"/>
+      <c r="B7" s="244"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
       <c r="E7" s="264" t="s">
         <v>29</v>
       </c>
@@ -4566,39 +4566,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="251" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="251" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242" t="s">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
       <c r="F3" s="93"/>
       <c r="G3" s="59"/>
       <c r="H3" s="62"/>
@@ -4613,18 +4613,18 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="243"/>
-      <c r="J5" s="243"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
+      <c r="J5" s="252"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -4635,14 +4635,14 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="246" t="s">
+      <c r="A7" s="244" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="246"/>
-      <c r="C7" s="245" t="s">
+      <c r="B7" s="244"/>
+      <c r="C7" s="243" t="s">
         <v>363</v>
       </c>
-      <c r="D7" s="245"/>
+      <c r="D7" s="243"/>
       <c r="E7" s="264" t="s">
         <v>29</v>
       </c>
@@ -8123,58 +8123,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="251" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="251" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242" t="s">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="252" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="246" t="s">
+      <c r="A7" s="244" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="246"/>
+      <c r="B7" s="244"/>
       <c r="C7" s="272" t="s">
         <v>27</v>
       </c>
@@ -8275,14 +8275,14 @@
       <c r="H12" s="121"/>
     </row>
     <row r="13" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="250"/>
-      <c r="B13" s="251"/>
-      <c r="C13" s="251"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="252"/>
+      <c r="A13" s="248"/>
+      <c r="B13" s="249"/>
+      <c r="C13" s="249"/>
+      <c r="D13" s="249"/>
+      <c r="E13" s="249"/>
+      <c r="F13" s="249"/>
+      <c r="G13" s="249"/>
+      <c r="H13" s="250"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
@@ -8498,14 +8498,14 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="250"/>
-      <c r="B23" s="251"/>
-      <c r="C23" s="251"/>
-      <c r="D23" s="251"/>
-      <c r="E23" s="251"/>
-      <c r="F23" s="251"/>
-      <c r="G23" s="251"/>
-      <c r="H23" s="252"/>
+      <c r="A23" s="248"/>
+      <c r="B23" s="249"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="249"/>
+      <c r="E23" s="249"/>
+      <c r="F23" s="249"/>
+      <c r="G23" s="249"/>
+      <c r="H23" s="250"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
@@ -8638,14 +8638,14 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="250"/>
-      <c r="B30" s="251"/>
-      <c r="C30" s="251"/>
-      <c r="D30" s="251"/>
-      <c r="E30" s="251"/>
-      <c r="F30" s="251"/>
-      <c r="G30" s="251"/>
-      <c r="H30" s="252"/>
+      <c r="A30" s="248"/>
+      <c r="B30" s="249"/>
+      <c r="C30" s="249"/>
+      <c r="D30" s="249"/>
+      <c r="E30" s="249"/>
+      <c r="F30" s="249"/>
+      <c r="G30" s="249"/>
+      <c r="H30" s="250"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
@@ -8876,14 +8876,14 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="250"/>
-      <c r="B41" s="251"/>
-      <c r="C41" s="251"/>
-      <c r="D41" s="251"/>
-      <c r="E41" s="251"/>
-      <c r="F41" s="251"/>
-      <c r="G41" s="251"/>
-      <c r="H41" s="252"/>
+      <c r="A41" s="248"/>
+      <c r="B41" s="249"/>
+      <c r="C41" s="249"/>
+      <c r="D41" s="249"/>
+      <c r="E41" s="249"/>
+      <c r="F41" s="249"/>
+      <c r="G41" s="249"/>
+      <c r="H41" s="250"/>
     </row>
     <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
@@ -9695,6 +9695,11 @@
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <mergeCells count="14">
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A7:B7"/>
@@ -9704,11 +9709,6 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.54" right="0.26" top="0.32" bottom="0.74" header="0.23" footer="0.17"/>
@@ -9745,59 +9745,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="251" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
       <c r="F2" s="236"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="251" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242" t="s">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
       <c r="F3" s="236"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="252" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="243"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="246"/>
-      <c r="B7" s="246"/>
+      <c r="A7" s="244"/>
+      <c r="B7" s="244"/>
       <c r="C7" s="272" t="s">
         <v>28</v>
       </c>
@@ -10527,58 +10527,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="251" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="251" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242" t="s">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="252" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="246" t="s">
+      <c r="A7" s="244" t="s">
         <v>382</v>
       </c>
-      <c r="B7" s="246"/>
+      <c r="B7" s="244"/>
       <c r="C7" s="272" t="s">
         <v>28</v>
       </c>
@@ -11003,62 +11003,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="251" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="251" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="242"/>
+      <c r="B3" s="251"/>
       <c r="C3" s="226"/>
-      <c r="D3" s="242" t="s">
+      <c r="D3" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="242"/>
-      <c r="F3" s="242"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="252" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="243"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="246" t="s">
+      <c r="A7" s="244" t="s">
         <v>381</v>
       </c>
-      <c r="B7" s="246"/>
+      <c r="B7" s="244"/>
       <c r="C7" s="227"/>
       <c r="D7" s="272" t="s">
         <v>28</v>
@@ -18380,14 +18380,14 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="246" t="s">
+      <c r="A7" s="244" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="246"/>
-      <c r="C7" s="245" t="s">
+      <c r="B7" s="244"/>
+      <c r="C7" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="245"/>
+      <c r="D7" s="243"/>
       <c r="E7" s="264" t="s">
         <v>43</v>
       </c>
@@ -20554,6 +20554,14 @@
     <sortCondition ref="A84:A92"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="E106:H106"/>
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="A10:F10"/>
@@ -20562,14 +20570,6 @@
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.34" right="0.16" top="0.64" bottom="0.2" header="0.3" footer="0.17"/>
@@ -22275,39 +22275,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="251" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
       <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
       <c r="I2" s="107"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="251" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242" t="s">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
       <c r="F3" s="59"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
@@ -22320,17 +22320,17 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="252" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="243"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -22339,14 +22339,14 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="246" t="s">
+      <c r="A7" s="244" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="246"/>
-      <c r="C7" s="245" t="s">
+      <c r="B7" s="244"/>
+      <c r="C7" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="245"/>
+      <c r="D7" s="243"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="57"/>
@@ -22387,15 +22387,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="247" t="s">
+      <c r="A10" s="245" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="248"/>
-      <c r="C10" s="248"/>
-      <c r="D10" s="248"/>
-      <c r="E10" s="248"/>
-      <c r="F10" s="248"/>
-      <c r="G10" s="249"/>
+      <c r="B10" s="246"/>
+      <c r="C10" s="246"/>
+      <c r="D10" s="246"/>
+      <c r="E10" s="246"/>
+      <c r="F10" s="246"/>
+      <c r="G10" s="247"/>
       <c r="H10" s="99">
         <v>2622054</v>
       </c>
@@ -24278,15 +24278,15 @@
       </c>
     </row>
     <row r="90" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="247" t="s">
+      <c r="A90" s="245" t="s">
         <v>246</v>
       </c>
-      <c r="B90" s="248"/>
-      <c r="C90" s="248"/>
-      <c r="D90" s="248"/>
-      <c r="E90" s="248"/>
-      <c r="F90" s="248"/>
-      <c r="G90" s="249"/>
+      <c r="B90" s="246"/>
+      <c r="C90" s="246"/>
+      <c r="D90" s="246"/>
+      <c r="E90" s="246"/>
+      <c r="F90" s="246"/>
+      <c r="G90" s="247"/>
       <c r="H90" s="99">
         <f>H89</f>
         <v>2411924</v>
@@ -25362,15 +25362,15 @@
       </c>
     </row>
     <row r="136" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="250"/>
-      <c r="B136" s="251"/>
-      <c r="C136" s="251"/>
-      <c r="D136" s="251"/>
-      <c r="E136" s="251"/>
-      <c r="F136" s="251"/>
-      <c r="G136" s="251"/>
-      <c r="H136" s="251"/>
-      <c r="I136" s="252"/>
+      <c r="A136" s="248"/>
+      <c r="B136" s="249"/>
+      <c r="C136" s="249"/>
+      <c r="D136" s="249"/>
+      <c r="E136" s="249"/>
+      <c r="F136" s="249"/>
+      <c r="G136" s="249"/>
+      <c r="H136" s="249"/>
+      <c r="I136" s="250"/>
     </row>
     <row r="137" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="39"/>
@@ -26631,15 +26631,20 @@
     <row r="193" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="15"/>
       <c r="B193" s="14"/>
-      <c r="E193" s="244"/>
-      <c r="F193" s="244"/>
-      <c r="G193" s="244"/>
-      <c r="H193" s="244"/>
+      <c r="E193" s="242"/>
+      <c r="F193" s="242"/>
+      <c r="G193" s="242"/>
+      <c r="H193" s="242"/>
       <c r="I193" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:I9"/>
   <mergeCells count="12">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A5:I5"/>
     <mergeCell ref="E193:H193"/>
     <mergeCell ref="A188:D188"/>
     <mergeCell ref="C7:D7"/>
@@ -26647,11 +26652,6 @@
     <mergeCell ref="A90:G90"/>
     <mergeCell ref="A136:I136"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.16" right="0.17" top="0.16" bottom="0.17" header="0.16" footer="0.16"/>
@@ -26688,58 +26688,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="251" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="251" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242" t="s">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="252" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="246" t="s">
+      <c r="A7" s="244" t="s">
         <v>388</v>
       </c>
-      <c r="B7" s="246"/>
+      <c r="B7" s="244"/>
       <c r="C7" s="272" t="s">
         <v>28</v>
       </c>
@@ -27199,8 +27199,8 @@
         <v>329</v>
       </c>
       <c r="B7" s="265"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="245"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
       <c r="E7" s="264"/>
       <c r="F7" s="264"/>
       <c r="G7" s="13"/>
@@ -27853,39 +27853,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="251" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="251" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242" t="s">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -27900,18 +27900,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="243"/>
-      <c r="J5" s="243"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
+      <c r="J5" s="252"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -27922,14 +27922,14 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="246" t="s">
+      <c r="A7" s="244" t="s">
         <v>389</v>
       </c>
-      <c r="B7" s="246"/>
-      <c r="C7" s="245" t="s">
+      <c r="B7" s="244"/>
+      <c r="C7" s="243" t="s">
         <v>390</v>
       </c>
-      <c r="D7" s="245"/>
+      <c r="D7" s="243"/>
       <c r="E7" s="264" t="s">
         <v>29</v>
       </c>
@@ -28302,39 +28302,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="251" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="251" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242" t="s">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -28349,18 +28349,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="243"/>
-      <c r="J5" s="243"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
+      <c r="J5" s="252"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -28371,14 +28371,14 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="246" t="s">
+      <c r="A7" s="244" t="s">
         <v>391</v>
       </c>
-      <c r="B7" s="246"/>
-      <c r="C7" s="245" t="s">
+      <c r="B7" s="244"/>
+      <c r="C7" s="243" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="245"/>
+      <c r="D7" s="243"/>
       <c r="E7" s="264" t="s">
         <v>29</v>
       </c>
@@ -28661,39 +28661,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="251" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="251" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242" t="s">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -28708,18 +28708,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="243"/>
-      <c r="J5" s="243"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
+      <c r="J5" s="252"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -28730,14 +28730,14 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="246" t="s">
+      <c r="A7" s="244" t="s">
         <v>392</v>
       </c>
-      <c r="B7" s="246"/>
-      <c r="C7" s="245" t="s">
+      <c r="B7" s="244"/>
+      <c r="C7" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="245"/>
+      <c r="D7" s="243"/>
       <c r="E7" s="264" t="s">
         <v>29</v>
       </c>
@@ -29075,42 +29075,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="251" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
       <c r="G1" s="92"/>
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="251" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="242"/>
+      <c r="B3" s="251"/>
       <c r="C3" s="215"/>
-      <c r="D3" s="242" t="s">
+      <c r="D3" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="242"/>
-      <c r="F3" s="242"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
       <c r="G3" s="93"/>
       <c r="H3" s="215"/>
       <c r="I3" s="62"/>
@@ -29125,19 +29125,19 @@
       <c r="J4" s="217"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="243"/>
-      <c r="J5" s="243"/>
-      <c r="K5" s="243"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
+      <c r="J5" s="252"/>
+      <c r="K5" s="252"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
@@ -29148,15 +29148,15 @@
       <c r="J6" s="217"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="246" t="s">
+      <c r="A7" s="244" t="s">
         <v>401</v>
       </c>
-      <c r="B7" s="246"/>
+      <c r="B7" s="244"/>
       <c r="C7" s="214"/>
-      <c r="D7" s="245" t="s">
+      <c r="D7" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="245"/>
+      <c r="E7" s="243"/>
       <c r="F7" s="264" t="s">
         <v>29</v>
       </c>
@@ -29736,39 +29736,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="251" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="251" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242" t="s">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -29783,18 +29783,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="243"/>
-      <c r="J5" s="243"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
+      <c r="J5" s="252"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -29805,14 +29805,14 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="246" t="s">
+      <c r="A7" s="244" t="s">
         <v>408</v>
       </c>
-      <c r="B7" s="246"/>
-      <c r="C7" s="245" t="s">
+      <c r="B7" s="244"/>
+      <c r="C7" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="245"/>
+      <c r="D7" s="243"/>
       <c r="E7" s="264" t="s">
         <v>29</v>
       </c>
@@ -30169,39 +30169,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="251" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="251" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242" t="s">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -30216,18 +30216,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="243"/>
-      <c r="J5" s="243"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
+      <c r="J5" s="252"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -30238,14 +30238,14 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="246" t="s">
+      <c r="A7" s="244" t="s">
         <v>409</v>
       </c>
-      <c r="B7" s="246"/>
-      <c r="C7" s="245" t="s">
+      <c r="B7" s="244"/>
+      <c r="C7" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="245"/>
+      <c r="D7" s="243"/>
       <c r="E7" s="264" t="s">
         <v>29</v>
       </c>
@@ -30574,15 +30574,24 @@
   <dimension ref="A1:BC38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:L1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" style="80" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="80" hidden="1" customWidth="1"/>
-    <col min="3" max="7" width="9.5703125" style="80" customWidth="1"/>
-    <col min="8" max="13" width="9.5703125" style="88" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="80" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="80" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="80" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="80" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="80" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="88" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="88" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="88" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="88" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="88" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="88" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" style="88" customWidth="1"/>
     <col min="15" max="15" width="32" style="88" customWidth="1"/>
     <col min="16" max="17" width="27.140625" style="88" customWidth="1"/>
@@ -30601,13 +30610,13 @@
         <v>455</v>
       </c>
       <c r="D1" s="90" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E1" s="90" t="s">
         <v>455</v>
       </c>
       <c r="F1" s="90" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G1" s="90" t="s">
         <v>455</v>
@@ -30616,13 +30625,13 @@
         <v>456</v>
       </c>
       <c r="I1" s="90" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J1" s="90" t="s">
         <v>456</v>
       </c>
       <c r="K1" s="90" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L1" s="90" t="s">
         <v>456</v>
@@ -31619,10 +31628,10 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="246" t="s">
+      <c r="A7" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="246"/>
+      <c r="B7" s="244"/>
       <c r="E7" s="185" t="s">
         <v>294</v>
       </c>
@@ -34904,65 +34913,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="251" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="251" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242" t="s">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
       <c r="F3" s="59"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="252" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="243"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="246" t="s">
+      <c r="A7" s="244" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="246"/>
-      <c r="C7" s="246" t="s">
+      <c r="B7" s="244"/>
+      <c r="C7" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="246"/>
+      <c r="D7" s="244"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G8" s="56"/>
@@ -34998,15 +35007,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="256" t="s">
+      <c r="A10" s="259" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="257"/>
-      <c r="C10" s="257"/>
-      <c r="D10" s="257"/>
-      <c r="E10" s="257"/>
-      <c r="F10" s="257"/>
-      <c r="G10" s="258"/>
+      <c r="B10" s="260"/>
+      <c r="C10" s="260"/>
+      <c r="D10" s="260"/>
+      <c r="E10" s="260"/>
+      <c r="F10" s="260"/>
+      <c r="G10" s="261"/>
       <c r="H10" s="144">
         <v>699938</v>
       </c>
@@ -36693,15 +36702,15 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="256" t="s">
+      <c r="A81" s="259" t="s">
         <v>194</v>
       </c>
-      <c r="B81" s="257"/>
-      <c r="C81" s="257"/>
-      <c r="D81" s="257"/>
-      <c r="E81" s="257"/>
-      <c r="F81" s="257"/>
-      <c r="G81" s="258"/>
+      <c r="B81" s="260"/>
+      <c r="C81" s="260"/>
+      <c r="D81" s="260"/>
+      <c r="E81" s="260"/>
+      <c r="F81" s="260"/>
+      <c r="G81" s="261"/>
       <c r="H81" s="144">
         <f>H80</f>
         <v>1800668</v>
@@ -37683,15 +37692,15 @@
       <c r="I120" s="31"/>
     </row>
     <row r="121" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="256" t="s">
+      <c r="A121" s="259" t="s">
         <v>246</v>
       </c>
-      <c r="B121" s="257"/>
-      <c r="C121" s="257"/>
-      <c r="D121" s="257"/>
-      <c r="E121" s="257"/>
-      <c r="F121" s="257"/>
-      <c r="G121" s="258"/>
+      <c r="B121" s="260"/>
+      <c r="C121" s="260"/>
+      <c r="D121" s="260"/>
+      <c r="E121" s="260"/>
+      <c r="F121" s="260"/>
+      <c r="G121" s="261"/>
       <c r="H121" s="144">
         <f>H120</f>
         <v>2586475</v>
@@ -38671,12 +38680,12 @@
       <c r="I163" s="30"/>
     </row>
     <row r="164" spans="1:9" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="259" t="s">
+      <c r="A164" s="256" t="s">
         <v>14</v>
       </c>
-      <c r="B164" s="260"/>
-      <c r="C164" s="260"/>
-      <c r="D164" s="261"/>
+      <c r="B164" s="257"/>
+      <c r="C164" s="257"/>
+      <c r="D164" s="258"/>
       <c r="E164" s="81">
         <f>SUM(E11:E163)+H10</f>
         <v>8739526.5</v>
@@ -38733,6 +38742,11 @@
   </sheetData>
   <autoFilter ref="A9:I9"/>
   <mergeCells count="12">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A10:G10"/>
     <mergeCell ref="A164:D164"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A7:B7"/>
@@ -38740,11 +38754,6 @@
     <mergeCell ref="A81:G81"/>
     <mergeCell ref="A121:G121"/>
     <mergeCell ref="I152:I153"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A10:G10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.41" right="0.22" top="0.28000000000000003" bottom="0.15" header="0.16" footer="0.15"/>
@@ -38781,42 +38790,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="251" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
       <c r="G1" s="92"/>
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="251" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="242"/>
+      <c r="B3" s="251"/>
       <c r="C3" s="226"/>
-      <c r="D3" s="242" t="s">
+      <c r="D3" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="242"/>
-      <c r="F3" s="242"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
       <c r="G3" s="93"/>
       <c r="H3" s="198"/>
       <c r="I3" s="62"/>
@@ -38831,19 +38840,19 @@
       <c r="J4" s="207"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="243"/>
-      <c r="J5" s="243"/>
-      <c r="K5" s="243"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
+      <c r="J5" s="252"/>
+      <c r="K5" s="252"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
@@ -38854,15 +38863,15 @@
       <c r="J6" s="207"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="246" t="s">
+      <c r="A7" s="244" t="s">
         <v>389</v>
       </c>
-      <c r="B7" s="246"/>
+      <c r="B7" s="244"/>
       <c r="C7" s="227"/>
-      <c r="D7" s="245" t="s">
+      <c r="D7" s="243" t="s">
         <v>390</v>
       </c>
-      <c r="E7" s="245"/>
+      <c r="E7" s="243"/>
       <c r="F7" s="264" t="s">
         <v>29</v>
       </c>
@@ -41822,39 +41831,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="251" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="251" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242" t="s">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -41869,18 +41878,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="243"/>
-      <c r="J5" s="243"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
+      <c r="J5" s="252"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -41891,14 +41900,14 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="246" t="s">
+      <c r="A7" s="244" t="s">
         <v>379</v>
       </c>
-      <c r="B7" s="246"/>
-      <c r="C7" s="245" t="s">
+      <c r="B7" s="244"/>
+      <c r="C7" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="245"/>
+      <c r="D7" s="243"/>
       <c r="E7" s="264" t="s">
         <v>29</v>
       </c>
@@ -42687,39 +42696,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="251" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="251" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242" t="s">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -42734,18 +42743,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="243"/>
-      <c r="J5" s="243"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
+      <c r="J5" s="252"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -42756,14 +42765,14 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="246" t="s">
+      <c r="A7" s="244" t="s">
         <v>403</v>
       </c>
-      <c r="B7" s="246"/>
-      <c r="C7" s="245" t="s">
+      <c r="B7" s="244"/>
+      <c r="C7" s="243" t="s">
         <v>404</v>
       </c>
-      <c r="D7" s="245"/>
+      <c r="D7" s="243"/>
       <c r="E7" s="264" t="s">
         <v>29</v>
       </c>
